--- a/gui-gai-train.xlsx
+++ b/gui-gai-train.xlsx
@@ -3345,7 +3345,7 @@
   <dimension ref="A1:L271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234:L271"/>
+      <selection activeCell="M1" sqref="M$1:N$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
